--- a/Free-Mouse_Analysis/Results_Free-Mouse/Mixed-Model_Analysis/Result_Tables/Free_Pred_Diag_resTable.xlsx
+++ b/Free-Mouse_Analysis/Results_Free-Mouse/Mixed-Model_Analysis/Result_Tables/Free_Pred_Diag_resTable.xlsx
@@ -905,7 +905,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D48" t="n">
